--- a/PowerWithOutliers.xlsx
+++ b/PowerWithOutliers.xlsx
@@ -1375,10 +1375,10 @@
         <v>488</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>976</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2089,10 +2089,10 @@
         <v>907</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1814</v>
+        <v>907</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2140,10 +2140,10 @@
         <v>865</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>1730</v>
+        <v>865</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2310,10 +2310,10 @@
         <v>602</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3262,10 +3262,10 @@
         <v>516</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>1032</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3347,10 +3347,10 @@
         <v>545</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>545</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3500,10 +3500,10 @@
         <v>531</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3687,10 +3687,10 @@
         <v>1055</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>1055</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3925,10 +3925,10 @@
         <v>641</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>641</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4554,10 +4554,10 @@
         <v>458</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4639,10 +4639,10 @@
         <v>465</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>465</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4979,10 +4979,10 @@
         <v>496</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5132,10 +5132,10 @@
         <v>517</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>517</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5183,10 +5183,10 @@
         <v>758</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5472,10 +5472,10 @@
         <v>741</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>741</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5506,10 +5506,10 @@
         <v>661</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>661</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5540,10 +5540,10 @@
         <v>631</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5557,10 +5557,10 @@
         <v>592</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287">
-        <v>592</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5625,10 +5625,10 @@
         <v>541</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>541</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5710,10 +5710,10 @@
         <v>508</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6492,10 +6492,10 @@
         <v>524</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342">
-        <v>1048</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6577,10 +6577,10 @@
         <v>552</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E347">
-        <v>552</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6883,10 +6883,10 @@
         <v>1106</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6934,10 +6934,10 @@
         <v>1082</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368">
-        <v>1082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7019,10 +7019,10 @@
         <v>892</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>892</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7206,10 +7206,10 @@
         <v>686</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E384">
-        <v>686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7223,10 +7223,10 @@
         <v>654</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7869,10 +7869,10 @@
         <v>517</v>
       </c>
       <c r="D423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E423">
-        <v>1034</v>
+        <v>517</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -8073,10 +8073,10 @@
         <v>584</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E435">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -8226,10 +8226,10 @@
         <v>607</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E444">
-        <v>1214</v>
+        <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8413,10 +8413,10 @@
         <v>559</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E455">
-        <v>559</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8804,10 +8804,10 @@
         <v>647</v>
       </c>
       <c r="D478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E478">
-        <v>647</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8838,10 +8838,10 @@
         <v>603</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E480">
-        <v>603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8923,10 +8923,10 @@
         <v>566</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485">
-        <v>566</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -9127,10 +9127,10 @@
         <v>519</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -9212,10 +9212,10 @@
         <v>588</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
-        <v>588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -9399,10 +9399,10 @@
         <v>451</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9569,10 +9569,10 @@
         <v>569</v>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E523">
-        <v>1138</v>
+        <v>569</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -9637,10 +9637,10 @@
         <v>582</v>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>582</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -9824,10 +9824,10 @@
         <v>592</v>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>1184</v>
+        <v>592</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="E556">
-        <v>2232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -10198,10 +10198,10 @@
         <v>1104</v>
       </c>
       <c r="D560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E560">
-        <v>2208</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -10334,10 +10334,10 @@
         <v>890</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>1780</v>
+        <v>890</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10351,10 +10351,10 @@
         <v>872</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569">
-        <v>0</v>
+        <v>872</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10419,10 +10419,10 @@
         <v>771</v>
       </c>
       <c r="D573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573">
-        <v>0</v>
+        <v>771</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10725,10 +10725,10 @@
         <v>554</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591">
-        <v>0</v>
+        <v>554</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10776,10 +10776,10 @@
         <v>577</v>
       </c>
       <c r="D594">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E594">
-        <v>577</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -11099,10 +11099,10 @@
         <v>490</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E613">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -11422,10 +11422,10 @@
         <v>586</v>
       </c>
       <c r="D632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E632">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -12085,10 +12085,10 @@
         <v>651</v>
       </c>
       <c r="D671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E671">
-        <v>1302</v>
+        <v>651</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -12765,10 +12765,10 @@
         <v>532</v>
       </c>
       <c r="D711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E711">
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -13054,10 +13054,10 @@
         <v>589</v>
       </c>
       <c r="D728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E728">
-        <v>0</v>
+        <v>589</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -13360,10 +13360,10 @@
         <v>1041.75</v>
       </c>
       <c r="D746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E746">
-        <v>1041.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -13921,10 +13921,10 @@
         <v>556.5</v>
       </c>
       <c r="D779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E779">
-        <v>556.5</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -13955,10 +13955,10 @@
         <v>552.5</v>
       </c>
       <c r="D781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E781">
-        <v>1105</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -14023,10 +14023,10 @@
         <v>566</v>
       </c>
       <c r="D785">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E785">
-        <v>566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -14856,10 +14856,10 @@
         <v>594.5</v>
       </c>
       <c r="D834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E834">
-        <v>1189</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -15536,10 +15536,10 @@
         <v>593</v>
       </c>
       <c r="D874">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E874">
-        <v>593</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -15655,10 +15655,10 @@
         <v>596.5</v>
       </c>
       <c r="D881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E881">
-        <v>1193</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -15757,10 +15757,10 @@
         <v>617</v>
       </c>
       <c r="D887">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E887">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -15944,10 +15944,10 @@
         <v>457.5</v>
       </c>
       <c r="D898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E898">
-        <v>0</v>
+        <v>457.5</v>
       </c>
     </row>
     <row r="899" spans="1:5">
@@ -16080,10 +16080,10 @@
         <v>534.5</v>
       </c>
       <c r="D906">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E906">
-        <v>534.5</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -16335,10 +16335,10 @@
         <v>576.5</v>
       </c>
       <c r="D921">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E921">
-        <v>0</v>
+        <v>576.5</v>
       </c>
     </row>
     <row r="922" spans="1:5">
@@ -16573,10 +16573,10 @@
         <v>598.1999999999999</v>
       </c>
       <c r="D935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E935">
-        <v>1196.4</v>
+        <v>598.1999999999999</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -16658,10 +16658,10 @@
         <v>1062.5</v>
       </c>
       <c r="D940">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E940">
-        <v>0</v>
+        <v>1062.5</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -16743,10 +16743,10 @@
         <v>1071</v>
       </c>
       <c r="D945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E945">
-        <v>1071</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="946" spans="1:5">
@@ -16947,10 +16947,10 @@
         <v>795.5</v>
       </c>
       <c r="D957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E957">
-        <v>795.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:5">
